--- a/biology/Zoologie/Amphiprion_mccullochi/Amphiprion_mccullochi.xlsx
+++ b/biology/Zoologie/Amphiprion_mccullochi/Amphiprion_mccullochi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphiprion mccullochi, communément appelé Clown de McCulloch, est une espèce de poissons osseux marins de la famille des pomacentridés.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiprion mccullochi est endémique des côtes de l'île Lord Howe en Australie[1]. Il se rencontre à une profondeur comprise entre 2 et 45 m[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiprion mccullochi est endémique des côtes de l'île Lord Howe en Australie. Il se rencontre à une profondeur comprise entre 2 et 45 m.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Amphiprion mccullochi est de 120 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Amphiprion mccullochi est de 120 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, mccullochi, lui a été donné en l'honneur d'Allan Riverstone McCulloch (1885-1925), zoologiste australien[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, mccullochi, lui a été donné en l'honneur d'Allan Riverstone McCulloch (1885-1925), zoologiste australien.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(en) Whitley, 1929 : Some fishes of the order Amphiprioniformes. Memoirs of the Queensland Museum, vol. 9, p. 207-246[3], consulté le 16 septembre 2018/ref&gt; (texte intégral).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Whitley, 1929 : Some fishes of the order Amphiprioniformes. Memoirs of the Queensland Museum, vol. 9, p. 207-246, consulté le 16 septembre 2018/ref&gt; (texte intégral).</t>
         </is>
       </c>
     </row>
